--- a/data/predictions/crim_justice/death_penalty/overall/independent.xlsx
+++ b/data/predictions/crim_justice/death_penalty/overall/independent.xlsx
@@ -748,10 +748,10 @@
         <v>2019</v>
       </c>
       <c r="C34">
-        <v>0.6230516654016862</v>
+        <v>0.6023193692413885</v>
       </c>
       <c r="E34">
-        <v>0.3769483300795415</v>
+        <v>0.3976805321696911</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -759,10 +759,10 @@
         <v>2020</v>
       </c>
       <c r="C35">
-        <v>0.6340283986250007</v>
+        <v>0.636951842616266</v>
       </c>
       <c r="E35">
-        <v>0.3659715986901603</v>
+        <v>0.3630480125282763</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -770,10 +770,10 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.6252593509104971</v>
+        <v>0.6322490613885515</v>
       </c>
       <c r="E36">
-        <v>0.3747406413569714</v>
+        <v>0.3677507721568756</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -781,10 +781,10 @@
         <v>2022</v>
       </c>
       <c r="C37">
-        <v>0.6343854999488741</v>
+        <v>0.615377141988328</v>
       </c>
       <c r="E37">
-        <v>0.3656144945265073</v>
+        <v>0.3846228802238942</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -792,10 +792,10 @@
         <v>2023</v>
       </c>
       <c r="C38">
-        <v>0.6272935987702059</v>
+        <v>0.6117546523724768</v>
       </c>
       <c r="E38">
-        <v>0.3727063904140475</v>
+        <v>0.38824516445835</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -803,10 +803,10 @@
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>0.6348997842610938</v>
+        <v>0.6410115719309882</v>
       </c>
       <c r="E39">
-        <v>0.3651002072651483</v>
+        <v>0.3589882951831907</v>
       </c>
     </row>
   </sheetData>
